--- a/database/要求定義K-ER図.xlsx
+++ b/database/要求定義K-ER図.xlsx
@@ -44,13 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本名</t>
-    <rPh sb="0" eb="2">
-      <t>ホンミョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -286,6 +279,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1095,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1117,15 +1117,15 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1135,18 +1135,18 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
@@ -1154,33 +1154,33 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="10"/>
@@ -1189,11 +1189,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
@@ -1202,30 +1202,30 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1236,7 +1236,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1247,7 +1247,7 @@
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
       <c r="E10" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1258,7 +1258,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
@@ -1277,11 +1277,11 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
@@ -1290,15 +1290,15 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1308,78 +1308,78 @@
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
       <c r="E15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="10"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1391,7 +1391,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>

--- a/database/要求定義K-ER図.xlsx
+++ b/database/要求定義K-ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>学年学科テーブル</t>
     <rPh sb="0" eb="2">
@@ -286,6 +286,13 @@
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よくある質問</t>
+    <rPh sb="4" eb="6">
+      <t>シツモン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -471,13 +478,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1930389</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>4235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1930389</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>237068</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -565,13 +572,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1494368</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>2116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1494368</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>234949</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -612,13 +619,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1432997</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>14812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1559997</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>141812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -720,13 +727,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1866898</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>120649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1993898</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>4232</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1093,10 +1100,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1206,7 +1213,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
@@ -1220,8 +1227,8 @@
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="13" t="s">
-        <v>30</v>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
@@ -1233,32 +1240,32 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
+      <c r="E11" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
@@ -1268,11 +1275,11 @@
         <v>0</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1280,11 +1287,13 @@
         <v>32</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="11" t="s">
-        <v>31</v>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3"/>
     </row>
@@ -1293,23 +1302,21 @@
         <v>8</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="13" t="s">
-        <v>7</v>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -1317,10 +1324,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="7" t="s">
-        <v>25</v>
+      <c r="E16" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1331,8 +1338,8 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="12" t="s">
-        <v>34</v>
+      <c r="E17" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1344,7 +1351,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1353,10 +1360,10 @@
         <v>40</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
+      <c r="E19" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1368,7 +1375,7 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1376,10 +1383,10 @@
         <v>42</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1388,36 +1395,52 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="9" t="s">
-        <v>15</v>
+      <c r="E22" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="E23" s="3"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="1"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="E26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/database/要求定義K-ER図.xlsx
+++ b/database/要求定義K-ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>学年学科テーブル</t>
     <rPh sb="0" eb="2">
@@ -293,6 +293,43 @@
     <t>よくある質問</t>
     <rPh sb="4" eb="6">
       <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントカラーテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボトムイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学籍番号</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -339,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -386,11 +423,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -408,6 +458,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -829,6 +880,107 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1863735</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>185205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123835</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5121285" y="4452405"/>
+          <a:ext cx="127000" cy="121708"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>20108</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8451</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5144558" y="4516973"/>
+          <a:ext cx="1178968" cy="13754"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1100,10 +1252,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1313,7 +1465,7 @@
       <c r="A15" s="10"/>
       <c r="B15" s="4"/>
       <c r="C15" s="13" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -1324,7 +1476,9 @@
         <v>37</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
         <v>13</v>
@@ -1336,7 +1490,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="4"/>
       <c r="E17" s="11" t="s">
         <v>26</v>
@@ -1348,10 +1502,12 @@
         <v>39</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="7" t="s">
-        <v>25</v>
+      <c r="E18" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1360,10 +1516,12 @@
         <v>40</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="12" t="s">
-        <v>34</v>
+      <c r="E19" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1372,10 +1530,12 @@
         <v>41</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="7" t="s">
-        <v>35</v>
+      <c r="E20" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
@@ -1383,10 +1543,12 @@
         <v>42</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1395,10 +1557,12 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="10"/>
+      <c r="C22" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1410,7 +1574,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="1"/>
@@ -1419,28 +1583,33 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="9" t="s">
-        <v>15</v>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="E25" s="3"/>
+      <c r="C25" s="5"/>
+      <c r="E25" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="1"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C26" s="5"/>
+      <c r="E26" s="3"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="E28" s="1"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/database/要求定義K-ER図.xlsx
+++ b/database/要求定義K-ER図.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>学年学科テーブル</t>
     <rPh sb="0" eb="2">
@@ -175,27 +175,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ボトムイベントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ミドルイベントID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボトムイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ミドルイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トップイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグテーブルID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -252,10 +240,6 @@
   </si>
   <si>
     <t>アンケートID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アンケートタイトル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -297,10 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップイベントID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イベントカラーテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -331,6 +311,37 @@
     <rPh sb="0" eb="2">
       <t>シャシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケートタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイベントID（FK）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイベントID（FK）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップイベントID（FK）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミドルイベントID（FK）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学科コースID（FK）</t>
+    <rPh sb="0" eb="2">
+      <t>ガッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグテーブルID（FK）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1255,7 +1266,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1294,18 +1305,18 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="7" t="s">
@@ -1320,7 +1331,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="7" t="s">
@@ -1365,7 +1376,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
@@ -1384,7 +1395,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1393,11 +1404,11 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="12" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1417,7 +1428,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
       <c r="E11" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="3"/>
@@ -1430,13 +1441,13 @@
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
       <c r="E12" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
@@ -1455,7 +1466,7 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
@@ -1465,7 +1476,7 @@
       <c r="A15" s="10"/>
       <c r="B15" s="4"/>
       <c r="C15" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
@@ -1473,7 +1484,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
@@ -1487,82 +1498,84 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
       <c r="E17" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
-        <v>42</v>
+      <c r="A21" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
+      <c r="A22" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1593,6 +1606,7 @@
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="5"/>
       <c r="C25" s="5"/>
       <c r="E25" s="9" t="s">
         <v>15</v>
